--- a/ANALISIS DE ALGORITMO TABLAS.xlsx
+++ b/ANALISIS DE ALGORITMO TABLAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC16\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC11\Documents\numeroPerfecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFB34B2-245B-4D50-82E7-F906A34857DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4322350-77ED-4486-91CA-803FDC99348B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{EEA98CA8-AAC2-422E-B53F-4F741B2107DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEA98CA8-AAC2-422E-B53F-4F741B2107DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>Promedio</t>
   </si>
@@ -111,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -185,7 +186,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1914260717410323E-2"/>
+          <c:y val="0.16245370370370371"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -204,6 +215,45 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Hoja1!$J$4:$J$13</c:f>
@@ -269,6 +319,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -420,7 +471,729 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$D$38:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$38:$J$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5534900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5459320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5826280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6079460</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5950340</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6078760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6082480</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6098460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5717780</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5818500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-645E-41AE-B287-5F0784023EDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1228244640"/>
+        <c:axId val="1228245600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1228244640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1228245600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1228245600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1228244640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$L$4:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$R$4:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>197719.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>221720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4688260</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178220</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>183020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>190660</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4775940</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>172740.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4762420</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>189420</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AB0-4F82-9EAF-0C83E067741B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1445196144"/>
+        <c:axId val="1445191824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1445196144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1445191824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1445191824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1445196144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -976,6 +1749,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1009,6 +2814,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D43D0636-94B3-0967-7EDB-76C839A0E8F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43AABFD0-4079-633C-3F88-DEC5D0D32B29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1314,20 +3191,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785EA2D7-DB9A-4B90-8110-32335B5B5E53}">
-  <dimension ref="B2:J13"/>
+  <dimension ref="B2:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -1352,8 +3229,29 @@
       <c r="J3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D4" s="1">
         <v>6</v>
       </c>
@@ -1373,11 +3271,32 @@
         <v>2337</v>
       </c>
       <c r="J4" s="1">
-        <f>AVERAGE(E4:I4)</f>
+        <f t="shared" ref="J4:J13" si="0">AVERAGE(E4:I4)</f>
         <v>3448</v>
       </c>
+      <c r="L4" s="2">
+        <v>600</v>
+      </c>
+      <c r="M4" s="2">
+        <v>240900</v>
+      </c>
+      <c r="N4" s="2">
+        <v>193299</v>
+      </c>
+      <c r="O4" s="2">
+        <v>203000</v>
+      </c>
+      <c r="P4" s="2">
+        <v>178400</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>173000</v>
+      </c>
+      <c r="R4" s="2">
+        <v>197719.8</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
         <v>7</v>
       </c>
@@ -1397,11 +3316,32 @@
         <v>4014</v>
       </c>
       <c r="J5" s="1">
-        <f>AVERAGE(E5:I5)</f>
+        <f t="shared" si="0"/>
         <v>2604.4</v>
       </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="2">
+        <v>401400</v>
+      </c>
+      <c r="N5" s="2">
+        <v>178900</v>
+      </c>
+      <c r="O5" s="2">
+        <v>177900</v>
+      </c>
+      <c r="P5" s="2">
+        <v>175700</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>174700</v>
+      </c>
+      <c r="R5" s="2">
+        <v>221720</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D6" s="1">
         <v>8</v>
       </c>
@@ -1421,11 +3361,32 @@
         <v>1765</v>
       </c>
       <c r="J6" s="1">
-        <f>AVERAGE(E6:I6)</f>
+        <f t="shared" si="0"/>
         <v>2073.4</v>
       </c>
+      <c r="L6" s="2">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5205300</v>
+      </c>
+      <c r="N6" s="2">
+        <v>4379900</v>
+      </c>
+      <c r="O6" s="2">
+        <v>4909100</v>
+      </c>
+      <c r="P6" s="2">
+        <v>4595600</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>4351400</v>
+      </c>
+      <c r="R6" s="2">
+        <v>4688260</v>
+      </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
         <v>9</v>
       </c>
@@ -1445,11 +3406,32 @@
         <v>952</v>
       </c>
       <c r="J7" s="1">
-        <f>AVERAGE(E7:I7)</f>
+        <f t="shared" si="0"/>
         <v>2372.8000000000002</v>
       </c>
+      <c r="L7" s="2">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>172100</v>
+      </c>
+      <c r="N7" s="2">
+        <v>169500</v>
+      </c>
+      <c r="O7" s="2">
+        <v>177100</v>
+      </c>
+      <c r="P7" s="2">
+        <v>168200</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>204200</v>
+      </c>
+      <c r="R7" s="2">
+        <v>178220</v>
+      </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
         <v>10</v>
       </c>
@@ -1469,11 +3451,32 @@
         <v>2378</v>
       </c>
       <c r="J8" s="1">
-        <f>AVERAGE(E8:I8)</f>
+        <f t="shared" si="0"/>
         <v>4804.3999999999996</v>
       </c>
+      <c r="L8" s="2">
+        <v>40</v>
+      </c>
+      <c r="M8" s="2">
+        <v>169300</v>
+      </c>
+      <c r="N8" s="2">
+        <v>210300</v>
+      </c>
+      <c r="O8" s="2">
+        <v>169300</v>
+      </c>
+      <c r="P8" s="2">
+        <v>191600</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>174600</v>
+      </c>
+      <c r="R8" s="2">
+        <v>183020</v>
+      </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <v>11</v>
       </c>
@@ -1493,11 +3496,32 @@
         <v>2503</v>
       </c>
       <c r="J9" s="1">
-        <f>AVERAGE(E9:I9)</f>
+        <f t="shared" si="0"/>
         <v>2551.8000000000002</v>
       </c>
+      <c r="L9" s="2">
+        <v>50</v>
+      </c>
+      <c r="M9" s="2">
+        <v>176900</v>
+      </c>
+      <c r="N9" s="2">
+        <v>254500</v>
+      </c>
+      <c r="O9" s="2">
+        <v>172100</v>
+      </c>
+      <c r="P9" s="2">
+        <v>183100</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>166700</v>
+      </c>
+      <c r="R9" s="2">
+        <v>190660</v>
+      </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <v>12</v>
       </c>
@@ -1517,11 +3541,32 @@
         <v>3024</v>
       </c>
       <c r="J10" s="1">
-        <f>AVERAGE(E10:I10)</f>
+        <f t="shared" si="0"/>
         <v>2767.4</v>
       </c>
+      <c r="L10" s="2">
+        <v>28</v>
+      </c>
+      <c r="M10" s="2">
+        <v>4904600</v>
+      </c>
+      <c r="N10" s="2">
+        <v>4450500</v>
+      </c>
+      <c r="O10" s="2">
+        <v>5250100</v>
+      </c>
+      <c r="P10" s="2">
+        <v>4506900</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>4767600</v>
+      </c>
+      <c r="R10" s="2">
+        <v>4775940</v>
+      </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <v>13</v>
       </c>
@@ -1541,11 +3586,32 @@
         <v>2013</v>
       </c>
       <c r="J11" s="1">
-        <f>AVERAGE(E11:I11)</f>
+        <f t="shared" si="0"/>
         <v>1676</v>
       </c>
+      <c r="L11" s="2">
+        <v>70</v>
+      </c>
+      <c r="M11" s="2">
+        <v>165300</v>
+      </c>
+      <c r="N11" s="2">
+        <v>168400</v>
+      </c>
+      <c r="O11" s="2">
+        <v>173200</v>
+      </c>
+      <c r="P11" s="2">
+        <v>187100</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>169701</v>
+      </c>
+      <c r="R11" s="2">
+        <v>172740.2</v>
+      </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D12" s="1">
         <v>28</v>
       </c>
@@ -1565,11 +3631,32 @@
         <v>2422</v>
       </c>
       <c r="J12" s="1">
-        <f>AVERAGE(E12:I12)</f>
+        <f t="shared" si="0"/>
         <v>2836</v>
       </c>
+      <c r="L12" s="2">
+        <v>496</v>
+      </c>
+      <c r="M12" s="2">
+        <v>4498000</v>
+      </c>
+      <c r="N12" s="2">
+        <v>4545800</v>
+      </c>
+      <c r="O12" s="2">
+        <v>4729500</v>
+      </c>
+      <c r="P12" s="2">
+        <v>4598500</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>5440300</v>
+      </c>
+      <c r="R12" s="2">
+        <v>4762420</v>
+      </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D13" s="1">
         <v>30</v>
       </c>
@@ -1589,8 +3676,292 @@
         <v>2341</v>
       </c>
       <c r="J13" s="1">
-        <f>AVERAGE(E13:I13)</f>
+        <f t="shared" si="0"/>
         <v>3668.6</v>
+      </c>
+      <c r="L13" s="2">
+        <v>120</v>
+      </c>
+      <c r="M13" s="2">
+        <v>240300</v>
+      </c>
+      <c r="N13" s="2">
+        <v>170800</v>
+      </c>
+      <c r="O13" s="2">
+        <v>170000</v>
+      </c>
+      <c r="P13" s="2">
+        <v>172700</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>193300</v>
+      </c>
+      <c r="R13" s="2">
+        <v>189420</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="1">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5925200</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5030499</v>
+      </c>
+      <c r="G38" s="1">
+        <v>6106000</v>
+      </c>
+      <c r="H38" s="1">
+        <v>5995100</v>
+      </c>
+      <c r="I38" s="1">
+        <v>4617701</v>
+      </c>
+      <c r="J38" s="1">
+        <f>AVERAGE(E38:I38)</f>
+        <v>5534900</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="1">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1">
+        <v>5169400</v>
+      </c>
+      <c r="F39" s="1">
+        <v>6295700</v>
+      </c>
+      <c r="G39" s="1">
+        <v>4907300</v>
+      </c>
+      <c r="H39" s="1">
+        <v>4907300</v>
+      </c>
+      <c r="I39" s="1">
+        <v>6016900</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" ref="J39:J47" si="1">AVERAGE(E39:I39)</f>
+        <v>5459320</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="1">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1">
+        <v>6044100</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5755500</v>
+      </c>
+      <c r="G40" s="1">
+        <v>6023200</v>
+      </c>
+      <c r="H40" s="1">
+        <v>5302400</v>
+      </c>
+      <c r="I40" s="1">
+        <v>6006200</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="1"/>
+        <v>5826280</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="1">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6124300</v>
+      </c>
+      <c r="F41" s="1">
+        <v>6165500</v>
+      </c>
+      <c r="G41" s="1">
+        <v>6082600</v>
+      </c>
+      <c r="H41" s="1">
+        <v>6055000</v>
+      </c>
+      <c r="I41" s="1">
+        <v>5969900</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="1"/>
+        <v>6079460</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="1">
+        <v>10</v>
+      </c>
+      <c r="E42" s="1">
+        <v>5315200</v>
+      </c>
+      <c r="F42" s="1">
+        <v>6450100</v>
+      </c>
+      <c r="G42" s="1">
+        <v>5598400</v>
+      </c>
+      <c r="H42" s="1">
+        <v>6638000</v>
+      </c>
+      <c r="I42" s="1">
+        <v>5750000</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="1"/>
+        <v>5950340</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="1">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1">
+        <v>6116700</v>
+      </c>
+      <c r="F43" s="1">
+        <v>6172900</v>
+      </c>
+      <c r="G43" s="1">
+        <v>6146300</v>
+      </c>
+      <c r="H43" s="1">
+        <v>5939900</v>
+      </c>
+      <c r="I43" s="1">
+        <v>6018000</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="1"/>
+        <v>6078760</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="1">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1">
+        <v>6417700</v>
+      </c>
+      <c r="F44" s="1">
+        <v>6020800</v>
+      </c>
+      <c r="G44" s="1">
+        <v>6126700</v>
+      </c>
+      <c r="H44" s="1">
+        <v>5947200</v>
+      </c>
+      <c r="I44" s="1">
+        <v>5900000</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="1"/>
+        <v>6082480</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D45" s="1">
+        <v>13</v>
+      </c>
+      <c r="E45" s="1">
+        <v>6141100</v>
+      </c>
+      <c r="F45" s="1">
+        <v>6007200</v>
+      </c>
+      <c r="G45" s="1">
+        <v>5973900</v>
+      </c>
+      <c r="H45" s="1">
+        <v>6750500</v>
+      </c>
+      <c r="I45" s="1">
+        <v>5619600</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="1"/>
+        <v>6098460</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D46" s="1">
+        <v>28</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4510800</v>
+      </c>
+      <c r="F46" s="1">
+        <v>5877600</v>
+      </c>
+      <c r="G46" s="1">
+        <v>6118600</v>
+      </c>
+      <c r="H46" s="1">
+        <v>6141100</v>
+      </c>
+      <c r="I46" s="1">
+        <v>5940800</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="1"/>
+        <v>5717780</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="1">
+        <v>30</v>
+      </c>
+      <c r="E47" s="1">
+        <v>5073000</v>
+      </c>
+      <c r="F47" s="1">
+        <v>6012800</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5951400</v>
+      </c>
+      <c r="H47" s="1">
+        <v>6139600</v>
+      </c>
+      <c r="I47" s="1">
+        <v>5915700</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="1"/>
+        <v>5818500</v>
       </c>
     </row>
   </sheetData>
